--- a/biology/Botanique/Jardin_botanique_de_Bruxelles/Jardin_botanique_de_Bruxelles.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Bruxelles/Jardin_botanique_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de Bruxelles (en néerlandais : Kruidtuin van Brussel), situé sur le territoire de la commune de Saint-Josse-ten-Noode, à l'angle de la rue Royale et du boulevard du Jardin botanique, est un parc public implanté à l'emplacement de l'ancien Jardin botanique de l'État à Bruxelles créé en 1826. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu après l'annexion de la Belgique par la France en 1795, un premier jardin des plantes est créé le long de la première enceinte de la ville, à l'emplacement des jardins de l'ancien palais du Coudenberg.
 En 1826, les territoires de l'actuelle Belgique faisant depuis une dizaine d'années partie du royaume uni des Pays-Bas, cinq notables férus de botanique acquièrent un terrain boisé, aéré et alimenté en eau, pour y créer un ensemble abritant les collections bruxelloises de plantes déjà existantes, créant ainsi la Société royale d'horticulture des Pays-Bas.
@@ -524,7 +538,7 @@
 La décoration sculptée du Jardin botanique est commandée et réalisée à la fin du XIXe siècle. Il est décidé de doter le parc d'une série de sculptures dans le but à la fois de l'embellir et de stimuler l'art public. Le projet est confié à deux sculpteurs reconnus, Constantin Meunier et Charles Van der Stappen qui se chargent de la conception générale et des esquisses et en confient la réalisation à leurs collaborateurs. L'ensemble comprend 52 sculptures, exécutées entre 1894 et 1898, dont différentes fontaines, des groupes sculptés et des figures évoquant le temps, les saisons, les plantes et les animaux, ainsi que des luminaires électriques.
 L'État reprend le jardin en 1910.
 En 1935, les travaux de la jonction Nord-Midi posent la question du maintien du jardin sur son emplacement originel. Il est notamment envisagé de déplacer l'institution sur un site plus vaste. Le problème de la réaffectation ou du réaménagement des bâtiments et du jardin se pose. 
-En octobre 1938, la décision de déplacer le jardin botanique est prise. Le 1er janvier 1939, l'État prend possession des 93 hectares du domaine de Bouchout, inoccupé depuis 1927, dans la commune de Meise. Le jardin, renommé Jardin botanique de Meise après son transfert à la Communauté flamande le 1er janvier 2014[1]. En avril 1940, les plantes de la collection de plein air sont déménagées, ensuite ce sera le tour des arbres et arbustes, puis de la grande serre remontée à Bouchout.
+En octobre 1938, la décision de déplacer le jardin botanique est prise. Le 1er janvier 1939, l'État prend possession des 93 hectares du domaine de Bouchout, inoccupé depuis 1927, dans la commune de Meise. Le jardin, renommé Jardin botanique de Meise après son transfert à la Communauté flamande le 1er janvier 2014. En avril 1940, les plantes de la collection de plein air sont déménagées, ensuite ce sera le tour des arbres et arbustes, puis de la grande serre remontée à Bouchout.
 Le bâtiment est transformé en centre culturel, dont le nom Le Botanique rappelle son ancienne affectation. Un jardin de l'iris a été inauguré en 1995.
 </t>
         </is>
@@ -554,9 +568,11 @@
           <t>Sculptures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des 52 sculptures en bronze commandées à Constantin Meunier et Charles Van der Stappen, qui déléguèrent, ensuite, une partie du travail à d'autres artistes[2], et installées au XIXe siècle, il en reste actuellement 30 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des 52 sculptures en bronze commandées à Constantin Meunier et Charles Van der Stappen, qui déléguèrent, ensuite, une partie du travail à d'autres artistes, et installées au XIXe siècle, il en reste actuellement 30 :
 L'Aigle d'Henri Boncquet
 L'Hiver ou La Vieille Bûcheronne de Pierre Braecke
 Le Lierre d'Arthur Craco
@@ -622,7 +638,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques-uns des plus gros arbres remarquables du Jardin botanique répertoriés par la Commission des monuments et des sites :
 </t>
@@ -654,6 +672,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
